--- a/data/raw/recording_list.xlsx
+++ b/data/raw/recording_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>SOUND_FILES</t>
   </si>
@@ -25,6 +25,12 @@
     <t>HABITAT</t>
   </si>
   <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
     <t>Craugastor_crassidigitus_SANRAMON.wav</t>
   </si>
   <si>
@@ -34,24 +40,51 @@
     <t>Closed</t>
   </si>
   <si>
+    <t xml:space="preserve">low vegetation, on the ground, or o. rocks bordering small, rocky waterways </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crepuscular  (At dusk or early evening) </t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>Craugastor_fitzingeri_SI_DOTA.wav</t>
   </si>
   <si>
     <t>Craugastor_fitzingeri</t>
   </si>
   <si>
+    <t>low vegetation, or sit on exposed logs or rocks in or near streams, rivers or road cuts</t>
+  </si>
+  <si>
     <t>Dendrobates_auratus.wav</t>
   </si>
   <si>
     <t>Dendrobates_auratus</t>
   </si>
   <si>
+    <t>low vegetation, on the ground, prefers leaf litter, in lowland and foothills</t>
+  </si>
+  <si>
+    <t>Diurnal</t>
+  </si>
+  <si>
     <t>Dendropsophus_ebracattus_GUAYACAN.wav</t>
   </si>
   <si>
     <t>Dendropsophus_ebracattus</t>
   </si>
   <si>
+    <t>Intermediate (1 - 2 m) Males call from reed and grasses emerging from the breeding pond or from shrubby vegetation along the edge of water.</t>
+  </si>
+  <si>
+    <t>Nocturnal</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
     <t>Dendropsophus_phlebodesRIOFRIO.wav</t>
   </si>
   <si>
@@ -67,46 +100,109 @@
     <t>Diasporus_diastema</t>
   </si>
   <si>
+    <t xml:space="preserve">Variable () Males call from specific perches, these can be located in leaf piles on the forest floor, in dense shrubs, at sites at the top of the rainforest canopy or in arboreal perches </t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
     <t>Leptodactylus_savagei.wav</t>
   </si>
   <si>
     <t>Leptodactylus_savagei</t>
   </si>
   <si>
+    <t xml:space="preserve">Open (mmm yo no lo pondria como open) </t>
+  </si>
+  <si>
+    <t>low, from the edge of ponds and swamps but also from the entrance of burrows located beneath a log or rock, often in areas of dense vegetation</t>
+  </si>
+  <si>
+    <t>Crepuscular (At dusk or early evening)</t>
+  </si>
+  <si>
     <t>Oophaga_pumilioLOSCHILES.wav</t>
   </si>
   <si>
     <t>Oophaga_pumilio</t>
   </si>
   <si>
+    <t xml:space="preserve">high (&gt; 2m), elevated calling sites, potential nest sites, plants with water filled- leaf axils </t>
+  </si>
+  <si>
     <t>Phyllobates_lugubris.wav</t>
   </si>
   <si>
     <t>Phyllobates_lugubris</t>
   </si>
   <si>
+    <t>low, leaf litter</t>
+  </si>
+  <si>
     <t>Phyllobates_vitattus.wav</t>
   </si>
   <si>
     <t>Phyllobates_vitattus</t>
   </si>
   <si>
+    <t>Diurnal - Crepuscular</t>
+  </si>
+  <si>
     <t>Pristimantis_ridens.wav</t>
   </si>
   <si>
     <t>Pristimantis_ridens</t>
   </si>
   <si>
+    <t>Crepuscular (At dusk )</t>
+  </si>
+  <si>
     <t>Smilisca_elaeochroaCRUCITAS.wav</t>
   </si>
   <si>
     <t>Smilisca_elaeochroa</t>
   </si>
   <si>
+    <t>Low, males call from emergent vegetation or from low bushes near the edge of temporary ponds</t>
+  </si>
+  <si>
     <t>Smilisca_phaeotaTENORIO.wav</t>
   </si>
   <si>
     <t>Smilisca_phaeota</t>
+  </si>
+  <si>
+    <t>low  - intermediate height, males tend to call while hidden amid vegetation or underneath an overhangin bank or they simply float on the water surface while vocalizing</t>
+  </si>
+  <si>
+    <t>Hyalinobatrachium fleischmanni 1 indiv.wav</t>
+  </si>
+  <si>
+    <t>Hyalinobatrachium fleischmanni</t>
+  </si>
+  <si>
+    <t>8908Cochranella granulosa.wav</t>
+  </si>
+  <si>
+    <t>Cochranella granulosa</t>
+  </si>
+  <si>
+    <t>8125Hyalinobatrachium valerioi.wav</t>
+  </si>
+  <si>
+    <t>Hyalinobatrachium valerioi</t>
+  </si>
+  <si>
+    <t>7448Smilisca_sordida.wav</t>
+  </si>
+  <si>
+    <t>Smilisca sordida</t>
+  </si>
+  <si>
+    <t>7437Smilisca_puma.wav</t>
+  </si>
+  <si>
+    <t>Smilisca puma</t>
   </si>
 </sst>
 </file>
@@ -115,9 +211,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -135,14 +231,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -152,6 +255,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,121 +329,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,43 +384,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,127 +564,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,35 +589,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +624,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -565,17 +673,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,156 +686,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1055,169 +1163,347 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="36.8333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="36.8" customWidth="true"/>
+    <col min="1" max="1" width="36.8333333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="51" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" ht="25.5" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="38.25" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="38.25" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="51" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="3" ht="25.5" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="51" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" spans="1:3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="6" ht="38.25" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="38.25" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="38.25" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="8" ht="38.25" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="51" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/recording_list.xlsx
+++ b/data/raw/recording_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>SOUND_FILES</t>
   </si>
@@ -22,6 +22,9 @@
     <t>SPECIES</t>
   </si>
   <si>
+    <t>species2</t>
+  </si>
+  <si>
     <t>HABITAT</t>
   </si>
   <si>
@@ -31,12 +34,18 @@
     <t>ACTIVITY</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>Craugastor_crassidigitus_SANRAMON.wav</t>
   </si>
   <si>
     <t>Craugastor_crassidigitus</t>
   </si>
   <si>
+    <t>C. crassidigitus</t>
+  </si>
+  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t>Craugastor_fitzingeri</t>
   </si>
   <si>
+    <t>C. fitzingeri</t>
+  </si>
+  <si>
     <t>low vegetation, or sit on exposed logs or rocks in or near streams, rivers or road cuts</t>
   </si>
   <si>
@@ -64,6 +76,9 @@
     <t>Dendrobates_auratus</t>
   </si>
   <si>
+    <t>D. auratus</t>
+  </si>
+  <si>
     <t>low vegetation, on the ground, prefers leaf litter, in lowland and foothills</t>
   </si>
   <si>
@@ -76,6 +91,9 @@
     <t>Dendropsophus_ebracattus</t>
   </si>
   <si>
+    <t>D. ebracattus</t>
+  </si>
+  <si>
     <t>Intermediate (1 - 2 m) Males call from reed and grasses emerging from the breeding pond or from shrubby vegetation along the edge of water.</t>
   </si>
   <si>
@@ -91,6 +109,9 @@
     <t>Dendropsophus_phlebodes</t>
   </si>
   <si>
+    <t>D. phlebodes</t>
+  </si>
+  <si>
     <t>Open</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t>Diasporus_diastema</t>
   </si>
   <si>
+    <t>D. diastema</t>
+  </si>
+  <si>
     <t xml:space="preserve">Variable () Males call from specific perches, these can be located in leaf piles on the forest floor, in dense shrubs, at sites at the top of the rainforest canopy or in arboreal perches </t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>Leptodactylus_savagei</t>
   </si>
   <si>
+    <t>L. savagei</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open (mmm yo no lo pondria como open) </t>
   </si>
   <si>
@@ -127,6 +154,9 @@
     <t>Oophaga_pumilio</t>
   </si>
   <si>
+    <t>O. pumilio</t>
+  </si>
+  <si>
     <t xml:space="preserve">high (&gt; 2m), elevated calling sites, potential nest sites, plants with water filled- leaf axils </t>
   </si>
   <si>
@@ -136,6 +166,9 @@
     <t>Phyllobates_lugubris</t>
   </si>
   <si>
+    <t>P. lugubris</t>
+  </si>
+  <si>
     <t>low, leaf litter</t>
   </si>
   <si>
@@ -145,6 +178,9 @@
     <t>Phyllobates_vitattus</t>
   </si>
   <si>
+    <t>P. vitattus</t>
+  </si>
+  <si>
     <t>Diurnal - Crepuscular</t>
   </si>
   <si>
@@ -154,6 +190,9 @@
     <t>Pristimantis_ridens</t>
   </si>
   <si>
+    <t>P. ridens</t>
+  </si>
+  <si>
     <t>Crepuscular (At dusk )</t>
   </si>
   <si>
@@ -163,6 +202,9 @@
     <t>Smilisca_elaeochroa</t>
   </si>
   <si>
+    <t>S. elaeochroa</t>
+  </si>
+  <si>
     <t>Low, males call from emergent vegetation or from low bushes near the edge of temporary ponds</t>
   </si>
   <si>
@@ -172,6 +214,9 @@
     <t>Smilisca_phaeota</t>
   </si>
   <si>
+    <t>S. phaeota</t>
+  </si>
+  <si>
     <t>low  - intermediate height, males tend to call while hidden amid vegetation or underneath an overhangin bank or they simply float on the water surface while vocalizing</t>
   </si>
   <si>
@@ -181,28 +226,43 @@
     <t>Hyalinobatrachium fleischmanni</t>
   </si>
   <si>
+    <t>H. fleischmanni</t>
+  </si>
+  <si>
     <t>8908Cochranella granulosa.wav</t>
   </si>
   <si>
     <t>Cochranella granulosa</t>
   </si>
   <si>
+    <t>C. granulosa</t>
+  </si>
+  <si>
     <t>8125Hyalinobatrachium valerioi.wav</t>
   </si>
   <si>
     <t>Hyalinobatrachium valerioi</t>
   </si>
   <si>
+    <t>H. valeroi</t>
+  </si>
+  <si>
     <t>7448Smilisca_sordida.wav</t>
   </si>
   <si>
     <t>Smilisca sordida</t>
   </si>
   <si>
+    <t>S. sordida</t>
+  </si>
+  <si>
     <t>7437Smilisca_puma.wav</t>
   </si>
   <si>
     <t>Smilisca puma</t>
+  </si>
+  <si>
+    <t>S. puma</t>
   </si>
 </sst>
 </file>
@@ -210,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,10 +291,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,31 +361,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,8 +382,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,48 +405,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,28 +434,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,187 +450,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,11 +644,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,21 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,15 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,8 +736,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,148 +746,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,18 +1223,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.8333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="36.8333333333333" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="36.8333333333333" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1190,320 +1250,380 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" spans="1:6">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" ht="25.5" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="38.25" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="38.25" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="38.25" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" ht="38.25" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="true" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="51" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="38.25" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" ht="51" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
